--- a/API/Uploads/FileTemplate/DS-BaoCaoHoiNghiHoiThao.xlsx
+++ b/API/Uploads/FileTemplate/DS-BaoCaoHoiNghiHoiThao.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="444" windowWidth="33600" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="DS-NhanSu" sheetId="3" r:id="rId1"/>
+    <sheet name="Danh sách" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -29,9 +29,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>DANH SÁCH BÁO CÁO TIẾN ĐỘ NGHIÊN CỨU</t>
-  </si>
-  <si>
     <t>Tên hội nghị, hội thảo</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trạng thái </t>
+  </si>
+  <si>
+    <t>DANH SÁCH BÁO CÁO HỘI NGHỊ HỘI THẢO</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -530,37 +530,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
